--- a/src/test/resources/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/src/test/resources/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\BulkSiteUpload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\src\test\resources\BulkSiteUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6E813-F74B-495A-8264-CE4C20D16199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA412B-9140-4ED4-86DE-C2CE90B157ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="4716" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -61,70 +61,40 @@
     <t>New York</t>
   </si>
   <si>
+    <t>TestRegion2</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>-74.00</t>
+  </si>
+  <si>
+    <t>TestSite1</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>1036001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestRegion</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t>TestRegion1</t>
-  </si>
-  <si>
-    <t>TestRegion2</t>
-  </si>
-  <si>
-    <t>40.71</t>
-  </si>
-  <si>
-    <t>-74.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TestSite1</t>
-  </si>
-  <si>
-    <t>1050001</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>TestRegion</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Lahore</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>1438001</t>
-  </si>
-  <si>
-    <t>Farm</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>1439001</t>
-  </si>
-  <si>
-    <t>1440001</t>
-  </si>
-  <si>
-    <t>1441001</t>
-  </si>
-  <si>
-    <t>1003001</t>
-  </si>
-  <si>
-    <t>1019001</t>
-  </si>
-  <si>
-    <t>2075001</t>
   </si>
 </sst>
 </file>
@@ -162,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,13 +525,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -576,21 +546,21 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -605,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/src/test/resources/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>TestRegion1</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Lahore</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -543,13 +552,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -557,10 +566,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -575,10 +584,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
